--- a/ProjectInfo/Gantt.xlsx
+++ b/ProjectInfo/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didcoa000328\Documents\DrillDigitalTwin\ProjectInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DD4E88-9C4D-4E0A-9057-7C7CF0FBDDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331DC78-FD87-4A7C-ABD7-E1C0F220211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14760" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>DM Structure 3D Model</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Particles</t>
   </si>
   <si>
-    <t>Subsea Soil</t>
-  </si>
-  <si>
     <t>CSV Data Reading</t>
   </si>
   <si>
@@ -65,7 +62,37 @@
     <t>Interactive mode DM Movements</t>
   </si>
   <si>
-    <t>User Interface</t>
+    <t>REX</t>
+  </si>
+  <si>
+    <t>Hours Spend</t>
+  </si>
+  <si>
+    <t>Subsea Soil Layers</t>
+  </si>
+  <si>
+    <t>User Interface Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive mode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replay mode </t>
+  </si>
+  <si>
+    <t>User Interface Structure</t>
+  </si>
+  <si>
+    <t>Settings Menu</t>
+  </si>
+  <si>
+    <t>Subsea Soil Layers Information</t>
+  </si>
+  <si>
+    <t>Application Icon</t>
+  </si>
+  <si>
+    <t>Graph Line Sensors</t>
   </si>
 </sst>
 </file>
@@ -81,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +127,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,26 +189,12 @@
       <left style="thick">
         <color rgb="FF224C5A"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF224C5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color rgb="FF224C5A"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thick">
+        <color rgb="FF224C5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF224C5A"/>
       </bottom>
@@ -179,19 +204,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,8 +225,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF08A04"/>
       <color rgb="FF628E9E"/>
-      <color rgb="FFF08A04"/>
       <color rgb="FF224C5A"/>
     </mruColors>
   </colors>
@@ -479,233 +504,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="37" width="6.77734375" customWidth="1"/>
+    <col min="38" max="38" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10">
+    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7">
         <v>45813</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="7">
         <f>WORKDAY(B1, 1)</f>
         <v>45814</v>
       </c>
-      <c r="D1" s="10">
-        <f t="shared" ref="D1:AD1" si="0">WORKDAY(C1, 1)</f>
+      <c r="D1" s="8">
+        <f t="shared" ref="D1:AB1" si="0">WORKDAY(C1, 1)</f>
         <v>45817</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="8">
         <f t="shared" si="0"/>
         <v>45818</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="8">
         <f t="shared" si="0"/>
         <v>45819</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="8">
         <f t="shared" si="0"/>
         <v>45820</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="8">
         <f t="shared" si="0"/>
         <v>45821</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="7">
         <f t="shared" si="0"/>
         <v>45824</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="7">
         <f t="shared" si="0"/>
         <v>45825</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="7">
         <f t="shared" si="0"/>
         <v>45826</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="7">
         <f t="shared" si="0"/>
         <v>45827</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="7">
         <f t="shared" si="0"/>
         <v>45828</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="8">
         <f t="shared" si="0"/>
         <v>45831</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="8">
         <f t="shared" si="0"/>
         <v>45832</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="8">
         <f t="shared" si="0"/>
         <v>45833</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="8">
         <f t="shared" si="0"/>
         <v>45834</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="8">
         <f t="shared" si="0"/>
         <v>45835</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="7">
         <f t="shared" si="0"/>
         <v>45838</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="7">
         <f t="shared" si="0"/>
         <v>45839</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="7">
         <f t="shared" si="0"/>
         <v>45840</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="7">
         <f t="shared" si="0"/>
         <v>45841</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="7">
         <f t="shared" si="0"/>
         <v>45842</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="8">
         <f t="shared" si="0"/>
         <v>45845</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="8">
         <f t="shared" si="0"/>
         <v>45846</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="8">
         <f t="shared" si="0"/>
         <v>45847</v>
       </c>
-      <c r="AA1" s="10">
+      <c r="AA1" s="8">
         <f t="shared" si="0"/>
         <v>45848</v>
       </c>
-      <c r="AB1" s="10">
+      <c r="AB1" s="8">
         <f t="shared" si="0"/>
         <v>45849</v>
       </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="AC1" s="7">
+        <f t="shared" ref="AC1" si="1">WORKDAY(AB1, 1)</f>
+        <v>45852</v>
+      </c>
+      <c r="AD1" s="7">
+        <f t="shared" ref="AD1" si="2">WORKDAY(AC1, 1)</f>
+        <v>45853</v>
+      </c>
+      <c r="AE1" s="7">
+        <f t="shared" ref="AE1" si="3">WORKDAY(AD1, 1)</f>
+        <v>45854</v>
+      </c>
+      <c r="AF1" s="7">
+        <f t="shared" ref="AF1" si="4">WORKDAY(AE1, 1)</f>
+        <v>45855</v>
+      </c>
+      <c r="AG1" s="7">
+        <f t="shared" ref="AG1" si="5">WORKDAY(AF1, 1)</f>
+        <v>45856</v>
+      </c>
+      <c r="AH1" s="8">
+        <f t="shared" ref="AH1" si="6">WORKDAY(AG1, 1)</f>
+        <v>45859</v>
+      </c>
+      <c r="AI1" s="8">
+        <f t="shared" ref="AI1:AK1" si="7">WORKDAY(AH1, 1)</f>
+        <v>45860</v>
+      </c>
+      <c r="AJ1" s="8">
+        <f t="shared" si="7"/>
+        <v>45861</v>
+      </c>
+      <c r="AK1" s="8">
+        <f t="shared" si="7"/>
+        <v>45862</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="Z2" s="6"/>
+      <c r="AL2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="AL3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="AL4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
+      <c r="AL5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="AL6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="AL7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="AL8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3"/>
+      <c r="AL9" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3"/>
+      <c r="AL10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="6"/>
+      <c r="AL11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+    </row>
+    <row r="14" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="AL14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="AL15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="AL16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+    </row>
+    <row r="18" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="AL18" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="3"/>
+      <c r="AL19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="R20" s="6"/>
+      <c r="AL20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
